--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VBDB" sheetId="1" r:id="rId1"/>
     <sheet name="Busybox Time" sheetId="4" r:id="rId2"/>
     <sheet name="Busybox Correctness" sheetId="5" r:id="rId3"/>
     <sheet name="Results" sheetId="3" r:id="rId4"/>
+    <sheet name="Diagrams" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="blargh_1" localSheetId="0">VBDB!$H$172:$K$227</definedName>
@@ -69,7 +70,7 @@
     </textPr>
   </connection>
   <connection id="4" name="busybox_time_evaluation.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="macOS:Users:ek:hiwi:eval_crc_vbdb:busybox_time_evaluation.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="macOS:Users:ek:hiwi:eval_crc_vbdb:busybox_time_evaluation.csv" decimal="," thousands="." comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="229">
   <si>
     <t>locator</t>
   </si>
@@ -800,13 +801,28 @@
   <si>
     <t>Evaluation Results</t>
   </si>
+  <si>
+    <t>Busybox Time</t>
+  </si>
+  <si>
+    <t>VBDB Time</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -875,7 +891,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +922,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -916,7 +938,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -932,8 +954,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -947,17 +1049,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="95">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -965,6 +1069,46 @@
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -972,6 +1116,46 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,8 +1163,564 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Busybox</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TypeChef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SuperC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureCoPP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VBDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TypeChef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SuperC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureCoPP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.7585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2102508088"/>
+        <c:axId val="-2102705832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2102508088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102705832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2102705832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Median Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0103950103950104"/>
+              <c:y val="0.33171159487417"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102508088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Busybox</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TypeChef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SuperC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureCoPP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.88659793814433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.948453608247423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.938144329896907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.948453608247423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Diagrams!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VBDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Diagrams!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TypeChef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SuperC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureCoPP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diagrams!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.963636363636364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.963636363636364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.981818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.963636363636364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2098654760"/>
+        <c:axId val="-2098841528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2098654760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2098841528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2098841528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Correctness [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0103950103950104"/>
+              <c:y val="0.33171159487417"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2098654760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+        <c:minorUnit val="0.004"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="evaluation" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="evaluation_1" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,7 +1728,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="evaluation_1" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="evaluation" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16726,7 +17466,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -38626,7 +39365,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -55550,7 +56288,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -55563,8 +56300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -56233,15 +56970,15 @@
         <v>4</v>
       </c>
       <c r="L23" s="13">
-        <f>J23/(J23+K23)</f>
+        <f t="shared" ref="L23:L29" si="3">J23/(J23+K23)</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="M23" s="13">
-        <f>J23/(J23+I23)</f>
+        <f t="shared" ref="M23:M29" si="4">J23/(J23+I23)</f>
         <v>0.92473118279569888</v>
       </c>
       <c r="N23" s="13">
-        <f>J23/H23</f>
+        <f t="shared" ref="N23:N29" si="5">J23/H23</f>
         <v>0.88659793814432986</v>
       </c>
     </row>
@@ -56290,15 +57027,15 @@
         <v>5</v>
       </c>
       <c r="L24" s="13">
-        <f>J24/(J24+K24)</f>
+        <f t="shared" si="3"/>
         <v>0.94845360824742264</v>
       </c>
       <c r="M24" s="13">
-        <f>J24/(J24+I24)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N24" s="13">
-        <f>J24/H24</f>
+        <f t="shared" si="5"/>
         <v>0.94845360824742264</v>
       </c>
     </row>
@@ -56347,15 +57084,15 @@
         <v>6</v>
       </c>
       <c r="L25" s="13">
-        <f>J25/(J25+K25)</f>
+        <f t="shared" si="3"/>
         <v>0.93814432989690721</v>
       </c>
       <c r="M25" s="13">
-        <f>J25/(J25+I25)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N25" s="13">
-        <f>J25/H25</f>
+        <f t="shared" si="5"/>
         <v>0.93814432989690721</v>
       </c>
     </row>
@@ -56404,15 +57141,15 @@
         <v>5</v>
       </c>
       <c r="L26" s="13">
-        <f>J26/(J26+K26)</f>
+        <f t="shared" si="3"/>
         <v>0.94845360824742264</v>
       </c>
       <c r="M26" s="13">
-        <f>J26/(J26+I26)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N26" s="13">
-        <f>J26/H26</f>
+        <f t="shared" si="5"/>
         <v>0.94845360824742264</v>
       </c>
     </row>
@@ -56461,15 +57198,15 @@
         <v>3</v>
       </c>
       <c r="L27" s="15">
-        <f>J27/(J27+K27)</f>
+        <f t="shared" si="3"/>
         <v>0.96103896103896103</v>
       </c>
       <c r="M27" s="15">
-        <f>J27/(J27+I27)</f>
+        <f t="shared" si="4"/>
         <v>0.78723404255319152</v>
       </c>
       <c r="N27" s="15">
-        <f>J27/H27</f>
+        <f t="shared" si="5"/>
         <v>0.76288659793814428</v>
       </c>
     </row>
@@ -56518,15 +57255,15 @@
         <v>2</v>
       </c>
       <c r="L28" s="15">
-        <f>J28/(J28+K28)</f>
+        <f t="shared" si="3"/>
         <v>0.97402597402597402</v>
       </c>
       <c r="M28" s="15">
-        <f>J28/(J28+I28)</f>
+        <f t="shared" si="4"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="N28" s="15">
-        <f>J28/H28</f>
+        <f t="shared" si="5"/>
         <v>0.77319587628865982</v>
       </c>
     </row>
@@ -56575,15 +57312,15 @@
         <v>4</v>
       </c>
       <c r="L29" s="15">
-        <f>J29/(J29+K29)</f>
+        <f t="shared" si="3"/>
         <v>0.95876288659793818</v>
       </c>
       <c r="M29" s="15">
-        <f>J29/(J29+I29)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N29" s="15">
-        <f>J29/H29</f>
+        <f t="shared" si="5"/>
         <v>0.95876288659793818</v>
       </c>
     </row>
@@ -56662,7 +57399,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="14" max="1048575" man="1"/>
   </colBreaks>
@@ -56675,4 +57411,192 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11">
+        <f>SUM(VBDB!$C$4:$C$59)/1000</f>
+        <v>42.533000000000001</v>
+      </c>
+      <c r="C5" s="22">
+        <v>244.6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
+        <f>MEDIAN(VBDB!$C$4:$C$59)/1000</f>
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="F5" s="11">
+        <f>MEDIAN('Busybox Time'!$C$4:$C$123)/1000</f>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SUM(VBDB!$C$60:$C$115)/1000</f>
+        <v>44.618000000000002</v>
+      </c>
+      <c r="C6" s="22">
+        <v>173.12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="11">
+        <f>MEDIAN(VBDB!$C$60:$C$115)/1000</f>
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="F6" s="11">
+        <f>MEDIAN('Busybox Time'!$C$124:$C$243)/1000</f>
+        <v>1.4255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SUM(VBDB!$C$116:$C$171)/1000</f>
+        <v>36.523000000000003</v>
+      </c>
+      <c r="C7" s="22">
+        <v>110.46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="11">
+        <f>MEDIAN(VBDB!$C$116:$C$171)/1000</f>
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F7" s="11">
+        <f>MEDIAN('Busybox Time'!$C$244:$C$363)/1000</f>
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="11">
+        <f>SUM(VBDB!$C$172:$C$227)/1000</f>
+        <v>40.012999999999998</v>
+      </c>
+      <c r="C8" s="22">
+        <v>277.95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="11">
+        <f>MEDIAN(VBDB!$C$172:$C$227)/1000</f>
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="F8" s="11">
+        <f>MEDIAN('Busybox Time'!$C$364:$C$483)/1000</f>
+        <v>2.3504999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.88659793814432986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.94845360824742264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0.98181818181818181</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.93814432989690721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0.96363636363636362</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.94845360824742264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>